--- a/Sushanta/Invoice/Template.xlsx
+++ b/Sushanta/Invoice/Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5A04C-FD55-4C45-99C7-A93C1BBFF07A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517EE2C9-1BA3-40BC-B875-96C4E1B7EFD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Description of Goods</t>
-  </si>
-  <si>
-    <t>HSN/SAC Code</t>
   </si>
   <si>
     <t>Price</t>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>HSN/SAC Code</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -575,15 +575,6 @@
       </top>
       <bottom style="dotted">
         <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,207 +643,398 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,7 +1373,7 @@
   <dimension ref="A2:L49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H9"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,656 +1386,656 @@
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="8" width="6" style="2" customWidth="1"/>
     <col min="9" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="75" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="36"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="97" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="78" t="s">
+      <c r="I19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="73" t="s">
+      <c r="J19" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="73" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="74"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47" t="str">
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="93" t="str">
         <f>IF(I21="", "", H21*I21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47" t="str">
+      <c r="B22" s="51"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="93" t="str">
         <f t="shared" ref="J22:J30" si="0">IF(I22="", "", H22*I22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47" t="str">
+      <c r="B23" s="51"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47" t="str">
+      <c r="B24" s="51"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47" t="str">
+      <c r="B25" s="51"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47" t="str">
+      <c r="B26" s="51"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47" t="str">
+      <c r="B27" s="51"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47" t="str">
+      <c r="B28" s="51"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47" t="str">
+      <c r="B29" s="51"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="47" t="str">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="61">
+      <c r="B31" s="70"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="94">
         <f>SUM(J21:J30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="59">
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="76">
         <v>0.09</v>
       </c>
-      <c r="J32" s="62">
+      <c r="J32" s="95">
         <f>J31*I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="B33" s="71"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="74"/>
+      <c r="H33" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="79">
         <v>0.09</v>
       </c>
-      <c r="J33" s="63">
+      <c r="J33" s="96">
         <f>J31*I33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="64">
+    <row r="34" spans="1:10" s="85" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="84"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="97">
         <f>SUM(J31:J33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="66" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="67">
+      <c r="B36" s="10"/>
+      <c r="C36" s="98">
         <f>J31</f>
         <v>0</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="98">
         <f>J32</f>
         <v>0</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="98">
         <f>J33</f>
         <v>0</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="98">
         <f>SUM(D36:E36)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
+      <c r="B38" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="36"/>
     </row>
     <row r="39" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="33" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="36"/>
+    </row>
+    <row r="42" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="I42" s="26"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="36" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="25"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="10"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="5"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="1"/>
+      <c r="I49" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="J21:J34" name="Range1"/>
   </protectedRanges>
-  <mergeCells count="18">
+  <mergeCells count="27">
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
@@ -1869,9 +2051,18 @@
     <mergeCell ref="D2:H9"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1890,23 +2081,23 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>21</v>
+      <c r="A1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
